--- a/_Excel/ItemTablev1.0.5.xlsx
+++ b/_Excel/ItemTablev1.0.5.xlsx
@@ -562,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U25" authorId="0" shapeId="0">
+    <comment ref="U23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -640,7 +640,319 @@
         </r>
       </text>
     </comment>
-    <comment ref="V25" authorId="0" shapeId="0">
+    <comment ref="V23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만분률이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용된것임</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>..
+35 -&gt; 0.35%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의미한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만분률이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용된것임</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>..
+35 -&gt; 0.35%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의미한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만분률이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용된것임</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>..
+35 -&gt; 0.35%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의미한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>만분률이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용된것임</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>..
+35 -&gt; 0.35%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의미한다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -723,7 +1035,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="217">
   <si>
     <t>def</t>
   </si>
@@ -1049,9 +1361,6 @@
     <t>Attack +10</t>
   </si>
   <si>
-    <t>HP + 100</t>
-  </si>
-  <si>
     <t>Attack + 10</t>
   </si>
   <si>
@@ -1163,9 +1472,6 @@
     <t>param1</t>
   </si>
   <si>
-    <t>상의(2)</t>
-  </si>
-  <si>
     <t>돌 등급(1)</t>
   </si>
   <si>
@@ -1256,18 +1562,9 @@
     <t>명사수 활</t>
   </si>
   <si>
-    <t>하의(2)</t>
-  </si>
-  <si>
     <t>액세서리</t>
   </si>
   <si>
-    <t>헬멧(2)</t>
-  </si>
-  <si>
-    <t>모험가 신발</t>
-  </si>
-  <si>
     <t>plusatt</t>
   </si>
   <si>
@@ -1292,12 +1589,6 @@
     <t>검(1)</t>
   </si>
   <si>
-    <t>신발(2)</t>
-  </si>
-  <si>
-    <t>모험가 하의</t>
-  </si>
-  <si>
     <t>plushp</t>
   </si>
   <si>
@@ -1305,9 +1596,6 @@
   </si>
   <si>
     <t>초보자 검</t>
-  </si>
-  <si>
-    <t>모험가 상의</t>
   </si>
   <si>
     <t>빨간 포션</t>
@@ -1372,6 +1660,50 @@
   </si>
   <si>
     <t>골드(4)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬멧(0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>상의(1)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 헬멧</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 상의</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급 신발</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가 상의</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가 신발</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>상의(1)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발(3)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>신발(3)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF + 5</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -2530,7 +2862,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>37</v>
@@ -2549,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2557,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2565,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2573,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2638,7 +2970,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>50</v>
@@ -2652,19 +2984,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>4</v>
@@ -2696,7 +3028,7 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -2711,10 +3043,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>45</v>
@@ -2902,10 +3234,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
@@ -3005,11 +3337,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -3051,11 +3383,11 @@
       </c>
       <c r="B1" s="10"/>
       <c r="E1" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="36" t="s">
@@ -3087,27 +3419,27 @@
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -3130,25 +3462,25 @@
         <v>35</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -3172,10 +3504,10 @@
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="36"/>
       <c r="R4" s="36"/>
@@ -3187,10 +3519,10 @@
       <c r="B5" s="17"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="36"/>
       <c r="R5" s="36"/>
@@ -3207,7 +3539,7 @@
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I6" s="36" t="s">
         <v>95</v>
@@ -3230,7 +3562,7 @@
         <v>4000</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D7" s="36"/>
       <c r="Q7" s="36"/>
@@ -3244,7 +3576,7 @@
         <v>5000</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="10"/>
@@ -3265,7 +3597,7 @@
       <c r="R8" s="13"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -3278,10 +3610,10 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3301,7 +3633,7 @@
       <c r="R9" s="13"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
@@ -3336,31 +3668,31 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T10" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="U10" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="W10" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="X10" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="V10" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="W10" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="X10" s="20" t="s">
+      <c r="Y10" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z10" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA10" s="20" t="s">
         <v>150</v>
-      </c>
-      <c r="Y10" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z10" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA10" s="20" t="s">
-        <v>152</v>
       </c>
       <c r="AB10" s="10"/>
     </row>
@@ -3369,7 +3701,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -3386,7 +3718,7 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R11" s="14"/>
       <c r="S11" s="33"/>
@@ -3405,55 +3737,55 @@
         <v>35</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="F12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>124</v>
-      </c>
       <c r="H12" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O12" s="10" t="s">
         <v>87</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q12" s="13" t="s">
         <v>36</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
@@ -3489,16 +3821,16 @@
         <v>85</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>76</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>83</v>
@@ -3522,16 +3854,16 @@
         <v>92</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="U13" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
@@ -3546,19 +3878,19 @@
         <v>20001</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="F14" s="16" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H14" s="16">
         <v>0</v>
@@ -3619,19 +3951,19 @@
         <v>20002</v>
       </c>
       <c r="C15" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="F15" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H15" s="16">
         <v>0</v>
@@ -3691,19 +4023,19 @@
         <v>20003</v>
       </c>
       <c r="C16" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="F16" s="34" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H16" s="34">
         <v>0</v>
@@ -3752,24 +4084,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="36">
         <v>20004</v>
       </c>
       <c r="C17" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="F17" s="34" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H17" s="34">
         <v>0</v>
@@ -3818,24 +4150,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="36">
         <v>20005</v>
       </c>
       <c r="C18" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="F18" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H18" s="34">
         <v>0</v>
@@ -3884,24 +4216,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="36">
         <v>20006</v>
       </c>
       <c r="C19" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="F19" s="34" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H19" s="34">
         <v>0</v>
@@ -3950,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>3</v>
       </c>
@@ -3973,16 +4305,16 @@
         <v>85</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>76</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>83</v>
@@ -4006,16 +4338,16 @@
         <v>92</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="U20" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
@@ -4024,24 +4356,24 @@
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
     </row>
-    <row r="21" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="36">
         <v>21001</v>
       </c>
       <c r="C21" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="F21" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>151</v>
+        <v>179</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>149</v>
       </c>
       <c r="H21" s="34">
         <v>0</v>
@@ -4059,7 +4391,7 @@
       <c r="L21" s="34">
         <v>0</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="36">
         <v>0</v>
       </c>
       <c r="N21" s="34">
@@ -4075,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="S21" s="36">
         <v>0</v>
@@ -4090,24 +4422,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="36">
         <v>21002</v>
       </c>
       <c r="C22" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="F22" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>151</v>
+        <v>208</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>149</v>
       </c>
       <c r="H22" s="34">
         <v>0</v>
@@ -4119,13 +4451,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="34">
-        <f t="shared" ref="K22:K24" si="1">B22</f>
+        <f t="shared" ref="K22" si="1">B22</f>
         <v>21002</v>
       </c>
       <c r="L22" s="34">
         <v>0</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="36">
         <v>0</v>
       </c>
       <c r="N22" s="34">
@@ -4141,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="36" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="S22" s="36">
         <v>0</v>
@@ -4150,96 +4482,98 @@
         <v>0</v>
       </c>
       <c r="U22" s="36">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V22" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="36">
-        <v>21003</v>
-      </c>
-      <c r="C23" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="36">
+        <v>22001</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="34">
-        <v>0</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" s="34">
-        <v>0</v>
-      </c>
-      <c r="K23" s="34">
-        <f t="shared" si="1"/>
-        <v>21003</v>
-      </c>
-      <c r="L23" s="34">
-        <v>0</v>
-      </c>
-      <c r="M23" s="20">
-        <v>0</v>
-      </c>
-      <c r="N23" s="34">
-        <v>0</v>
-      </c>
-      <c r="O23" s="34">
-        <v>0</v>
-      </c>
-      <c r="P23" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="12">
-        <v>0</v>
-      </c>
-      <c r="R23" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="S23" s="36">
-        <v>0</v>
-      </c>
-      <c r="T23" s="36">
-        <v>0</v>
-      </c>
-      <c r="U23" s="36">
-        <v>0</v>
-      </c>
-      <c r="V23" s="36">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="36">
-        <v>21004</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="F24" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>151</v>
+        <v>211</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>149</v>
       </c>
       <c r="H24" s="34">
         <v>0</v>
@@ -4251,13 +4585,13 @@
         <v>0</v>
       </c>
       <c r="K24" s="34">
-        <f t="shared" si="1"/>
-        <v>21004</v>
+        <f t="shared" ref="K24" si="2">B24</f>
+        <v>22001</v>
       </c>
       <c r="L24" s="34">
         <v>0</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="36">
         <v>0</v>
       </c>
       <c r="N24" s="34">
@@ -4273,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S24" s="36">
         <v>10</v>
@@ -4288,173 +4622,171 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="36">
+        <v>22002</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" s="34">
+        <v>0</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="34">
+        <v>0</v>
+      </c>
+      <c r="K25" s="34">
+        <f>B25</f>
+        <v>22002</v>
+      </c>
+      <c r="L25" s="34">
+        <v>0</v>
+      </c>
+      <c r="M25" s="20">
+        <v>0</v>
+      </c>
+      <c r="N25" s="34">
+        <v>0</v>
+      </c>
+      <c r="O25" s="34">
+        <v>0</v>
+      </c>
+      <c r="P25" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>0</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="S25" s="36">
+        <v>0</v>
+      </c>
+      <c r="T25" s="36">
+        <v>10</v>
+      </c>
+      <c r="U25" s="36">
+        <v>0</v>
+      </c>
+      <c r="V25" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J25" s="8" t="s">
+      <c r="H26" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L25" s="8" t="s">
+      <c r="K26" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M26" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N26" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="P26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="Q26" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="R26" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="S25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="T25" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="U25" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="V25" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-    </row>
-    <row r="26" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36">
-        <v>300</v>
-      </c>
-      <c r="C26" s="36" t="s">
+      <c r="S26" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="36">
+        <v>23001</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="34">
-        <v>0</v>
-      </c>
-      <c r="I26" s="36" t="s">
+      <c r="F27" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="34">
+        <v>0</v>
+      </c>
+      <c r="I27" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="34">
-        <v>0</v>
-      </c>
-      <c r="K26" s="34">
-        <f>B26</f>
-        <v>300</v>
-      </c>
-      <c r="L26" s="34">
-        <v>0</v>
-      </c>
-      <c r="M26" s="20">
-        <v>0</v>
-      </c>
-      <c r="N26" s="34">
-        <v>0</v>
-      </c>
-      <c r="O26" s="34">
-        <v>0</v>
-      </c>
-      <c r="P26" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="12">
-        <v>0</v>
-      </c>
-      <c r="R26" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="S26" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="T26" s="36">
-        <v>0</v>
-      </c>
-      <c r="U26" s="36">
-        <v>0</v>
-      </c>
-      <c r="V26" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="36">
-        <v>301</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H27" s="34">
-        <v>0</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>147</v>
-      </c>
       <c r="J27" s="34">
         <v>0</v>
       </c>
       <c r="K27" s="34">
-        <f t="shared" ref="K27:K31" si="2">B27</f>
-        <v>301</v>
+        <f t="shared" ref="K27:K28" si="3">B27</f>
+        <v>23001</v>
       </c>
       <c r="L27" s="34">
         <v>0</v>
@@ -4475,50 +4807,52 @@
         <v>0</v>
       </c>
       <c r="R27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S27" s="36" t="s">
-        <v>24</v>
+        <v>178</v>
+      </c>
+      <c r="S27" s="36">
+        <v>0</v>
       </c>
       <c r="T27" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="36">
         <v>0</v>
       </c>
       <c r="V27" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="36">
-        <v>302</v>
+        <v>23002</v>
       </c>
       <c r="C28" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="34"/>
+      <c r="F28" s="34" t="s">
+        <v>210</v>
+      </c>
       <c r="G28" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H28" s="34">
         <v>0</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="J28" s="34">
         <v>0</v>
       </c>
       <c r="K28" s="34">
-        <f t="shared" si="2"/>
-        <v>302</v>
+        <f t="shared" si="3"/>
+        <v>23002</v>
       </c>
       <c r="L28" s="34">
         <v>0</v>
@@ -4539,13 +4873,13 @@
         <v>0</v>
       </c>
       <c r="R28" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="S28" s="36" t="s">
-        <v>14</v>
+        <v>108</v>
+      </c>
+      <c r="S28" s="36">
+        <v>10</v>
       </c>
       <c r="T28" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="36">
         <v>0</v>
@@ -4554,99 +4888,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36">
-        <v>303</v>
-      </c>
-      <c r="C29" s="36" t="s">
+    <row r="29" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+    </row>
+    <row r="30" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="36">
+        <v>300</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>170</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="34">
-        <v>0</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="J29" s="34">
-        <v>0</v>
-      </c>
-      <c r="K29" s="34">
-        <f t="shared" si="2"/>
-        <v>303</v>
-      </c>
-      <c r="L29" s="34">
-        <v>0</v>
-      </c>
-      <c r="M29" s="20">
-        <v>0</v>
-      </c>
-      <c r="N29" s="34">
-        <v>0</v>
-      </c>
-      <c r="O29" s="34">
-        <v>0</v>
-      </c>
-      <c r="P29" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="12">
-        <v>0</v>
-      </c>
-      <c r="R29" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="S29" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="T29" s="36">
-        <v>1</v>
-      </c>
-      <c r="U29" s="36">
-        <v>0</v>
-      </c>
-      <c r="V29" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36">
-        <v>304</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H30" s="34">
         <v>0</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="J30" s="34">
         <v>0</v>
       </c>
       <c r="K30" s="34">
-        <f t="shared" si="2"/>
-        <v>304</v>
+        <f>B30</f>
+        <v>300</v>
       </c>
       <c r="L30" s="34">
         <v>0</v>
@@ -4667,13 +5011,13 @@
         <v>0</v>
       </c>
       <c r="R30" s="36" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="T30" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="36">
         <v>0</v>
@@ -4682,35 +5026,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="36">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C31" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>170</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H31" s="34">
         <v>0</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="J31" s="34">
         <v>0</v>
       </c>
       <c r="K31" s="34">
-        <f t="shared" si="2"/>
-        <v>305</v>
+        <f t="shared" ref="K31:K35" si="4">B31</f>
+        <v>301</v>
       </c>
       <c r="L31" s="34">
         <v>0</v>
@@ -4731,10 +5075,10 @@
         <v>0</v>
       </c>
       <c r="R31" s="36" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="T31" s="36">
         <v>1</v>
@@ -4746,244 +5090,261 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-    </row>
-    <row r="33" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q33" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="R33" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="S33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="T33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-    </row>
-    <row r="34" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
-      <c r="B34" s="13">
-        <v>10001</v>
+    <row r="32" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="36">
+        <v>302</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="34">
+        <v>0</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J32" s="34">
+        <v>0</v>
+      </c>
+      <c r="K32" s="34">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+      <c r="L32" s="34">
+        <v>0</v>
+      </c>
+      <c r="M32" s="20">
+        <v>0</v>
+      </c>
+      <c r="N32" s="34">
+        <v>0</v>
+      </c>
+      <c r="O32" s="34">
+        <v>0</v>
+      </c>
+      <c r="P32" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>0</v>
+      </c>
+      <c r="R32" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="S32" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="T32" s="36">
+        <v>1</v>
+      </c>
+      <c r="U32" s="36">
+        <v>0</v>
+      </c>
+      <c r="V32" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="36">
+        <v>303</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="34">
+        <v>0</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="34">
+        <v>0</v>
+      </c>
+      <c r="K33" s="34">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+      <c r="L33" s="34">
+        <v>0</v>
+      </c>
+      <c r="M33" s="20">
+        <v>0</v>
+      </c>
+      <c r="N33" s="34">
+        <v>0</v>
+      </c>
+      <c r="O33" s="34">
+        <v>0</v>
+      </c>
+      <c r="P33" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>0</v>
+      </c>
+      <c r="R33" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S33" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" s="36">
+        <v>1</v>
+      </c>
+      <c r="U33" s="36">
+        <v>0</v>
+      </c>
+      <c r="V33" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="36">
+        <v>304</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>196</v>
+        <v>168</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>155</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G34" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="G34" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="H34" s="13">
-        <v>0</v>
-      </c>
-      <c r="I34" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="J34" s="13">
+      <c r="J34" s="34">
         <v>0</v>
       </c>
       <c r="K34" s="34">
-        <v>10001</v>
-      </c>
-      <c r="L34" s="16">
-        <v>0</v>
-      </c>
-      <c r="M34" s="20" t="s">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="L34" s="34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="20">
+        <v>0</v>
+      </c>
+      <c r="N34" s="34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="34">
+        <v>0</v>
+      </c>
+      <c r="P34" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>0</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="S34" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="T34" s="36">
+        <v>1</v>
+      </c>
+      <c r="U34" s="36">
+        <v>0</v>
+      </c>
+      <c r="V34" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="36">
+        <v>305</v>
+      </c>
+      <c r="C35" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="N34" s="16">
-        <v>0</v>
-      </c>
-      <c r="O34" s="13">
-        <v>0</v>
-      </c>
-      <c r="P34" s="13">
+      <c r="D35" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="34">
+        <v>0</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" s="34">
+        <v>0</v>
+      </c>
+      <c r="K35" s="34">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+      <c r="L35" s="34">
+        <v>0</v>
+      </c>
+      <c r="M35" s="20">
+        <v>0</v>
+      </c>
+      <c r="N35" s="34">
+        <v>0</v>
+      </c>
+      <c r="O35" s="34">
+        <v>0</v>
+      </c>
+      <c r="P35" s="36">
         <v>1</v>
       </c>
-      <c r="Q34" s="13">
-        <v>0</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="S34" s="34">
-        <v>100</v>
-      </c>
-      <c r="T34" s="16">
-        <v>0</v>
-      </c>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-    </row>
-    <row r="35" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
-      <c r="B35" s="36">
-        <v>10002</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="13">
-        <v>0</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="J35" s="13">
-        <v>0</v>
-      </c>
-      <c r="K35" s="34">
-        <v>10002</v>
-      </c>
-      <c r="L35" s="16">
-        <v>0</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="N35" s="16">
-        <v>0</v>
-      </c>
-      <c r="O35" s="36">
+      <c r="Q35" s="12">
+        <v>0</v>
+      </c>
+      <c r="R35" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S35" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="T35" s="36">
         <v>1</v>
       </c>
-      <c r="P35" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="13">
-        <v>0</v>
-      </c>
-      <c r="R35" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="S35" s="34">
-        <v>0</v>
-      </c>
-      <c r="T35" s="16">
-        <v>100</v>
-      </c>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
+      <c r="U35" s="36">
+        <v>0</v>
+      </c>
+      <c r="V35" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
@@ -5018,9 +5379,9 @@
       <c r="AB36" s="19"/>
       <c r="AC36" s="19"/>
     </row>
-    <row r="37" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>75</v>
@@ -5041,16 +5402,16 @@
         <v>85</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>76</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>83</v>
@@ -5073,230 +5434,469 @@
       <c r="R37" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+    </row>
+    <row r="38" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39"/>
-      <c r="B38" s="36">
+      <c r="B38" s="13">
+        <v>10001</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="J38" s="13">
+        <v>0</v>
+      </c>
+      <c r="K38" s="34">
+        <v>10001</v>
+      </c>
+      <c r="L38" s="16">
+        <v>0</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="N38" s="16">
+        <v>0</v>
+      </c>
+      <c r="O38" s="13">
+        <v>0</v>
+      </c>
+      <c r="P38" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>0</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="S38" s="34">
+        <v>100</v>
+      </c>
+      <c r="T38" s="16">
+        <v>0</v>
+      </c>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+    </row>
+    <row r="39" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="39"/>
+      <c r="B39" s="36">
+        <v>10002</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39" s="13">
+        <v>0</v>
+      </c>
+      <c r="K39" s="34">
+        <v>10002</v>
+      </c>
+      <c r="L39" s="16">
+        <v>0</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="N39" s="16">
+        <v>0</v>
+      </c>
+      <c r="O39" s="36">
+        <v>1</v>
+      </c>
+      <c r="P39" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>0</v>
+      </c>
+      <c r="R39" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="S39" s="34">
+        <v>0</v>
+      </c>
+      <c r="T39" s="16">
+        <v>100</v>
+      </c>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+      <c r="AB39" s="13"/>
+    </row>
+    <row r="40" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+    </row>
+    <row r="41" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="39"/>
+      <c r="B42" s="36">
         <v>30001</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="H38" s="36">
-        <v>0</v>
-      </c>
-      <c r="I38" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="J38" s="36">
-        <v>0</v>
-      </c>
-      <c r="K38" s="34">
+      <c r="C42" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" s="36">
+        <v>0</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" s="36">
+        <v>0</v>
+      </c>
+      <c r="K42" s="34">
         <v>30001</v>
       </c>
-      <c r="L38" s="34">
-        <v>0</v>
-      </c>
-      <c r="M38" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="N38" s="34">
+      <c r="L42" s="34">
+        <v>0</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="N42" s="34">
         <v>1</v>
       </c>
-      <c r="O38" s="36">
-        <v>0</v>
-      </c>
-      <c r="P38" s="36">
+      <c r="O42" s="36">
+        <v>0</v>
+      </c>
+      <c r="P42" s="36">
         <v>1</v>
       </c>
-      <c r="Q38" s="36">
-        <v>0</v>
-      </c>
-      <c r="R38" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-    </row>
-    <row r="39" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
-      <c r="AB39" s="11"/>
-    </row>
-    <row r="40" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="Q42" s="36">
+        <v>0</v>
+      </c>
+      <c r="R42" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+    </row>
+    <row r="43" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+    </row>
+    <row r="44" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J40" s="8" t="s">
+      <c r="H44" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J44" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K40" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L40" s="8" t="s">
+      <c r="K44" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L44" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M44" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N40" s="8" t="s">
+      <c r="N44" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="O40" s="8" t="s">
+      <c r="O44" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="P44" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="Q44" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="R40" s="8" t="s">
+      <c r="R44" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="S40" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="T40" s="8" t="s">
+      <c r="S44" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="T44" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="U40" s="8" t="s">
+      <c r="U44" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-    </row>
-    <row r="41" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="36">
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+    </row>
+    <row r="45" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="36">
         <v>40001</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" s="36" t="s">
+      <c r="C45" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E45" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="36">
-        <v>0</v>
-      </c>
-      <c r="I41" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="J41" s="36">
-        <v>0</v>
-      </c>
-      <c r="K41" s="36">
+      <c r="F45" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H45" s="36">
+        <v>0</v>
+      </c>
+      <c r="I45" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45" s="36">
+        <v>0</v>
+      </c>
+      <c r="K45" s="36">
         <v>40001</v>
       </c>
-      <c r="L41" s="36">
-        <v>0</v>
-      </c>
-      <c r="M41" s="36">
-        <v>0</v>
-      </c>
-      <c r="N41" s="34">
-        <v>0</v>
-      </c>
-      <c r="O41" s="34">
-        <v>0</v>
-      </c>
-      <c r="P41" s="34">
+      <c r="L45" s="36">
+        <v>0</v>
+      </c>
+      <c r="M45" s="36">
+        <v>0</v>
+      </c>
+      <c r="N45" s="34">
+        <v>0</v>
+      </c>
+      <c r="O45" s="34">
+        <v>0</v>
+      </c>
+      <c r="P45" s="34">
         <v>1</v>
       </c>
-      <c r="Q41" s="34">
+      <c r="Q45" s="34">
         <v>1</v>
       </c>
-      <c r="R41" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="S41" s="36">
+      <c r="R45" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="S45" s="36">
         <v>10</v>
       </c>
-      <c r="T41" s="36" t="s">
+      <c r="T45" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="U41" s="36">
+      <c r="U45" s="36">
         <v>1</v>
       </c>
     </row>
@@ -5324,16 +5924,16 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
